--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>709895.134358732</v>
+        <v>702647.554963659</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9250114.296495747</v>
+        <v>9250114.296495751</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7735008.423835563</v>
+        <v>7735008.423835567</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9142046.445219159</v>
+        <v>9142046.445219157</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>25.00123026688421</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1172228173282</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>177.0734480055617</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.9588737673374</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2334980103508</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>14.64906590257946</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5934151572083</v>
+        <v>61.26889486904198</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>104.9910380206319</v>
       </c>
       <c r="I3" t="n">
-        <v>63.57075238159807</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.5857113589196</v>
+        <v>53.58571135891966</v>
       </c>
       <c r="S3" t="n">
         <v>157.7503553344525</v>
@@ -792,7 +792,7 @@
         <v>197.1412912232596</v>
       </c>
       <c r="U3" t="n">
-        <v>191.9877986156597</v>
+        <v>225.8920332647905</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>135.1608957373451</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>48.8987551905805</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>85.86949295521883</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>41.4772698414424</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>394.5202787833235</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>325.1172228173282</v>
       </c>
       <c r="I5" t="n">
-        <v>156.4277435039525</v>
+        <v>156.4277435039526</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>61.80474195134735</v>
+        <v>61.80474195134745</v>
       </c>
       <c r="S5" t="n">
-        <v>177.0734480055617</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.9588737673374</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2334980103508</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5934151572083</v>
       </c>
       <c r="H6" t="n">
-        <v>29.66651773246731</v>
+        <v>104.9910380206319</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>63.5707523815981</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>53.5857113589196</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>157.7503553344525</v>
+        <v>72.44079402360788</v>
       </c>
       <c r="T6" t="n">
         <v>197.1412912232596</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>58.8666799829778</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>85.86949295521939</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>193.1994278308454</v>
       </c>
       <c r="H8" t="n">
-        <v>207.8506936439281</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>74.81263606344214</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>225.8573996139459</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>162.2605966966356</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>165.0140383262351</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>22.79825004194885</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>353.2814519271019</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>278.8853048979414</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
-        <v>122.6942204073858</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I13" t="n">
         <v>104.7965952039006</v>
@@ -1579,16 +1579,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7486959972119</v>
+        <v>128.0749651773708</v>
       </c>
       <c r="U13" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>200.9160287000558</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>208.2474868886314</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>128.0749651773708</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>144.8586974472227</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,16 +1847,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>203.5758298573894</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.547702772954</v>
+        <v>193.1994278308454</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S19" t="n">
-        <v>136.8161444119144</v>
+        <v>137.7560160697391</v>
       </c>
       <c r="T19" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,16 +2084,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>278.081833306723</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>193.1994278308454</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>70.38899166021466</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>142.6946548021051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>143.2720129937816</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2271541212006</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.781160222247563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2555,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>81.21470415642943</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>1.589301908398161</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>144.8586974472227</v>
+        <v>134.1905381333739</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2798,19 +2798,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>101.5276397927848</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>120.3015609481149</v>
       </c>
       <c r="H29" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,19 +2843,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.0753655236787</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
         <v>220.7486959972119</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>1.781160222249216</v>
       </c>
     </row>
     <row r="32">
@@ -3029,13 +3029,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>166.4340902500776</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,10 +3044,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
-        <v>301.0185525624054</v>
+        <v>184.0722270912105</v>
       </c>
       <c r="I32" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>4.910533536225973</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I34" t="n">
         <v>104.7965952039006</v>
@@ -3238,22 +3238,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>158.3924179074757</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>203.7892779811709</v>
+        <v>203.7892779811713</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>55.94174219837129</v>
       </c>
       <c r="E37" t="n">
-        <v>90.69811547110028</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3554,13 +3554,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>53.96736632880982</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
-        <v>278.8853048979423</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.799009739037551</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>100.4274824880391</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>91.97811934871164</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>208.2474868886327</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>79.41653965146556</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>220.7486959972119</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.3387326418228</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3989,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>138.1457046486319</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>114.8796996327102</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4068,7 +4068,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3343964518629</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H45" t="n">
         <v>92.83156789269626</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>93.40336418555505</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>77.23851733757584</v>
       </c>
       <c r="I46" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>815.8876944729768</v>
+        <v>1164.263254713409</v>
       </c>
       <c r="C2" t="n">
-        <v>815.8876944729768</v>
+        <v>795.3007377729978</v>
       </c>
       <c r="D2" t="n">
-        <v>815.8876944729768</v>
+        <v>437.0350391662473</v>
       </c>
       <c r="E2" t="n">
-        <v>815.8876944729768</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="F2" t="n">
-        <v>404.9017896833693</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G2" t="n">
-        <v>379.6480217370216</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J2" t="n">
         <v>157.2146983965567</v>
       </c>
       <c r="K2" t="n">
-        <v>436.7779331278829</v>
+        <v>436.7779331278825</v>
       </c>
       <c r="L2" t="n">
-        <v>835.8774740265426</v>
+        <v>835.877474026542</v>
       </c>
       <c r="M2" t="n">
         <v>1296.559156998187</v>
       </c>
       <c r="N2" t="n">
-        <v>1750.063153682372</v>
+        <v>1750.063153682371</v>
       </c>
       <c r="O2" t="n">
-        <v>2133.106480061285</v>
+        <v>2133.106480061283</v>
       </c>
       <c r="P2" t="n">
-        <v>2422.350714197592</v>
+        <v>2422.350714197591</v>
       </c>
       <c r="Q2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S2" t="n">
-        <v>2383.477259707669</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T2" t="n">
-        <v>2164.326882164904</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U2" t="n">
-        <v>1910.555672053439</v>
+        <v>2308.568118288689</v>
       </c>
       <c r="V2" t="n">
-        <v>1579.492784709868</v>
+        <v>2293.771082023457</v>
       </c>
       <c r="W2" t="n">
-        <v>1579.492784709868</v>
+        <v>1941.002426753343</v>
       </c>
       <c r="X2" t="n">
-        <v>1206.027026448789</v>
+        <v>1941.002426753343</v>
       </c>
       <c r="Y2" t="n">
-        <v>815.8876944729768</v>
+        <v>1550.863094777531</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>882.5922663059281</v>
+        <v>848.3455646401376</v>
       </c>
       <c r="C3" t="n">
-        <v>708.1392370248011</v>
+        <v>673.8925353590106</v>
       </c>
       <c r="D3" t="n">
-        <v>559.2048273635498</v>
+        <v>524.9581256977593</v>
       </c>
       <c r="E3" t="n">
-        <v>399.9673723580943</v>
+        <v>365.7206706923038</v>
       </c>
       <c r="F3" t="n">
-        <v>253.4328143849793</v>
+        <v>219.1861127191888</v>
       </c>
       <c r="G3" t="n">
-        <v>115.4596677615365</v>
+        <v>157.2983401241969</v>
       </c>
       <c r="H3" t="n">
-        <v>115.4596677615365</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J3" t="n">
-        <v>51.24678656800312</v>
+        <v>120.6671692172147</v>
       </c>
       <c r="K3" t="n">
-        <v>296.518120746182</v>
+        <v>210.9133886556565</v>
       </c>
       <c r="L3" t="n">
-        <v>687.7200941981882</v>
+        <v>602.1153621076626</v>
       </c>
       <c r="M3" t="n">
-        <v>1196.213567051956</v>
+        <v>1110.60883496143</v>
       </c>
       <c r="N3" t="n">
-        <v>1733.872362450068</v>
+        <v>1648.267630359542</v>
       </c>
       <c r="O3" t="n">
-        <v>2159.30944181654</v>
+        <v>2073.704709726014</v>
       </c>
       <c r="P3" t="n">
-        <v>2483.75713752619</v>
+        <v>2398.152405435663</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="R3" t="n">
-        <v>2508.21234722953</v>
+        <v>2508.212347229528</v>
       </c>
       <c r="S3" t="n">
-        <v>2348.868553962406</v>
+        <v>2348.868553962404</v>
       </c>
       <c r="T3" t="n">
-        <v>2149.735936565174</v>
+        <v>2149.735936565172</v>
       </c>
       <c r="U3" t="n">
-        <v>1955.808867256427</v>
+        <v>1921.562165590637</v>
       </c>
       <c r="V3" t="n">
-        <v>1720.656759024684</v>
+        <v>1686.410057358894</v>
       </c>
       <c r="W3" t="n">
-        <v>1466.419402296483</v>
+        <v>1432.172700630692</v>
       </c>
       <c r="X3" t="n">
-        <v>1258.56790209095</v>
+        <v>1224.32120042516</v>
       </c>
       <c r="Y3" t="n">
-        <v>1050.807603325996</v>
+        <v>1016.560901660206</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>682.0853063817793</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="C4" t="n">
-        <v>682.0853063817793</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="D4" t="n">
-        <v>531.9686669694436</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="E4" t="n">
-        <v>384.0555733870505</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="F4" t="n">
-        <v>237.1656258891401</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G4" t="n">
-        <v>237.1656258891401</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H4" t="n">
-        <v>237.1656258891401</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I4" t="n">
-        <v>100.6394685786905</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="K4" t="n">
-        <v>101.5315041582452</v>
+        <v>101.5315041582451</v>
       </c>
       <c r="L4" t="n">
-        <v>221.4050648543856</v>
+        <v>221.4050648543853</v>
       </c>
       <c r="M4" t="n">
-        <v>358.1840501895424</v>
+        <v>358.1840501895421</v>
       </c>
       <c r="N4" t="n">
-        <v>497.1453533913465</v>
+        <v>497.1453533913461</v>
       </c>
       <c r="O4" t="n">
-        <v>609.4823129223978</v>
+        <v>609.4823129223972</v>
       </c>
       <c r="P4" t="n">
-        <v>682.0853063817793</v>
+        <v>682.0853063817787</v>
       </c>
       <c r="Q4" t="n">
-        <v>682.0853063817793</v>
+        <v>682.0853063817787</v>
       </c>
       <c r="R4" t="n">
-        <v>682.0853063817793</v>
+        <v>682.0853063817787</v>
       </c>
       <c r="S4" t="n">
-        <v>682.0853063817793</v>
+        <v>682.0853063817787</v>
       </c>
       <c r="T4" t="n">
-        <v>682.0853063817793</v>
+        <v>682.0853063817787</v>
       </c>
       <c r="U4" t="n">
-        <v>682.0853063817793</v>
+        <v>595.3484448108505</v>
       </c>
       <c r="V4" t="n">
-        <v>682.0853063817793</v>
+        <v>340.6639566049637</v>
       </c>
       <c r="W4" t="n">
-        <v>682.0853063817793</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="X4" t="n">
-        <v>682.0853063817793</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="Y4" t="n">
-        <v>682.0853063817793</v>
+        <v>51.24678656800308</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2101.897849890816</v>
+        <v>537.6558434581857</v>
       </c>
       <c r="C5" t="n">
-        <v>1732.935332950405</v>
+        <v>537.6558434581857</v>
       </c>
       <c r="D5" t="n">
-        <v>1732.935332950405</v>
+        <v>537.6558434581857</v>
       </c>
       <c r="E5" t="n">
-        <v>1347.14708035216</v>
+        <v>537.6558434581857</v>
       </c>
       <c r="F5" t="n">
-        <v>936.1611755625529</v>
+        <v>537.6558434581857</v>
       </c>
       <c r="G5" t="n">
         <v>537.6558434581857</v>
@@ -4562,55 +4562,55 @@
         <v>209.2546082891673</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
         <v>157.2146983965567</v>
       </c>
       <c r="K5" t="n">
-        <v>436.7779331278828</v>
+        <v>436.7779331278825</v>
       </c>
       <c r="L5" t="n">
-        <v>835.8774740265426</v>
+        <v>835.877474026542</v>
       </c>
       <c r="M5" t="n">
-        <v>1296.559156998188</v>
+        <v>1296.559156998187</v>
       </c>
       <c r="N5" t="n">
-        <v>1750.063153682372</v>
+        <v>1750.063153682371</v>
       </c>
       <c r="O5" t="n">
-        <v>2133.106480061285</v>
+        <v>2133.106480061283</v>
       </c>
       <c r="P5" t="n">
-        <v>2422.350714197592</v>
+        <v>2422.350714197591</v>
       </c>
       <c r="Q5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="R5" t="n">
-        <v>2499.910296126068</v>
+        <v>2499.910296126066</v>
       </c>
       <c r="S5" t="n">
-        <v>2321.048227433581</v>
+        <v>2499.910296126066</v>
       </c>
       <c r="T5" t="n">
-        <v>2101.897849890816</v>
+        <v>2280.759918583301</v>
       </c>
       <c r="U5" t="n">
-        <v>2101.897849890816</v>
+        <v>2026.988708471835</v>
       </c>
       <c r="V5" t="n">
-        <v>2101.897849890816</v>
+        <v>1695.925821128264</v>
       </c>
       <c r="W5" t="n">
-        <v>2101.897849890816</v>
+        <v>1343.15716585815</v>
       </c>
       <c r="X5" t="n">
-        <v>2101.897849890816</v>
+        <v>969.6914075970706</v>
       </c>
       <c r="Y5" t="n">
-        <v>2101.897849890816</v>
+        <v>579.5520756212588</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>848.3455646401394</v>
+        <v>988.6438198621219</v>
       </c>
       <c r="C6" t="n">
-        <v>673.8925353590124</v>
+        <v>814.1907905809949</v>
       </c>
       <c r="D6" t="n">
-        <v>524.9581256977611</v>
+        <v>665.2563809197436</v>
       </c>
       <c r="E6" t="n">
-        <v>365.7206706923056</v>
+        <v>506.0189259142882</v>
       </c>
       <c r="F6" t="n">
-        <v>219.1861127191906</v>
+        <v>359.4843679411731</v>
       </c>
       <c r="G6" t="n">
-        <v>81.21296609574787</v>
+        <v>221.5112213177303</v>
       </c>
       <c r="H6" t="n">
-        <v>51.24678656800312</v>
+        <v>115.4596677615365</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>51.24678656800312</v>
+        <v>120.6671692172147</v>
       </c>
       <c r="K6" t="n">
-        <v>296.518120746182</v>
+        <v>365.9385033953934</v>
       </c>
       <c r="L6" t="n">
-        <v>687.7200941981882</v>
+        <v>757.1404768473994</v>
       </c>
       <c r="M6" t="n">
-        <v>1196.213567051956</v>
+        <v>1265.633949701167</v>
       </c>
       <c r="N6" t="n">
-        <v>1733.872362450068</v>
+        <v>1648.267630359542</v>
       </c>
       <c r="O6" t="n">
-        <v>2159.30944181654</v>
+        <v>2073.704709726014</v>
       </c>
       <c r="P6" t="n">
-        <v>2483.75713752619</v>
+        <v>2398.152405435663</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="R6" t="n">
-        <v>2508.21234722953</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S6" t="n">
-        <v>2348.868553962406</v>
+        <v>2489.166809184389</v>
       </c>
       <c r="T6" t="n">
-        <v>2149.735936565174</v>
+        <v>2290.034191787156</v>
       </c>
       <c r="U6" t="n">
-        <v>1921.562165590638</v>
+        <v>2061.860420812621</v>
       </c>
       <c r="V6" t="n">
-        <v>1686.410057358896</v>
+        <v>1826.708312580878</v>
       </c>
       <c r="W6" t="n">
-        <v>1432.172700630694</v>
+        <v>1572.470955852677</v>
       </c>
       <c r="X6" t="n">
-        <v>1224.321200425161</v>
+        <v>1364.619455647144</v>
       </c>
       <c r="Y6" t="n">
-        <v>1016.560901660207</v>
+        <v>1156.85915688219</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.24678656800312</v>
+        <v>279.6442624080088</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800312</v>
+        <v>110.7080794801019</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800312</v>
+        <v>110.7080794801019</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="K7" t="n">
-        <v>101.5315041582452</v>
+        <v>101.5315041582451</v>
       </c>
       <c r="L7" t="n">
-        <v>221.4050648543856</v>
+        <v>221.4050648543853</v>
       </c>
       <c r="M7" t="n">
-        <v>358.1840501895424</v>
+        <v>358.1840501895421</v>
       </c>
       <c r="N7" t="n">
-        <v>497.1453533913465</v>
+        <v>497.1453533913461</v>
       </c>
       <c r="O7" t="n">
-        <v>609.4823129223978</v>
+        <v>609.4823129223972</v>
       </c>
       <c r="P7" t="n">
-        <v>682.0853063817793</v>
+        <v>682.0853063817787</v>
       </c>
       <c r="Q7" t="n">
-        <v>682.0853063817793</v>
+        <v>682.0853063817787</v>
       </c>
       <c r="R7" t="n">
-        <v>682.0853063817793</v>
+        <v>682.0853063817787</v>
       </c>
       <c r="S7" t="n">
-        <v>682.0853063817793</v>
+        <v>682.0853063817787</v>
       </c>
       <c r="T7" t="n">
-        <v>682.0853063817793</v>
+        <v>682.0853063817787</v>
       </c>
       <c r="U7" t="n">
-        <v>595.3484448108507</v>
+        <v>682.0853063817787</v>
       </c>
       <c r="V7" t="n">
-        <v>340.6639566049637</v>
+        <v>682.0853063817787</v>
       </c>
       <c r="W7" t="n">
-        <v>51.24678656800312</v>
+        <v>682.0853063817787</v>
       </c>
       <c r="X7" t="n">
-        <v>51.24678656800312</v>
+        <v>682.0853063817787</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.24678656800312</v>
+        <v>461.2927272382485</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.550462538253</v>
+        <v>1412.134398099141</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.550462538253</v>
+        <v>1043.171881158729</v>
       </c>
       <c r="D8" t="n">
-        <v>678.284763931503</v>
+        <v>1043.171881158729</v>
       </c>
       <c r="E8" t="n">
-        <v>678.284763931503</v>
+        <v>657.3836285604848</v>
       </c>
       <c r="F8" t="n">
-        <v>678.284763931503</v>
+        <v>246.3977237708772</v>
       </c>
       <c r="G8" t="n">
-        <v>261.1969821679305</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>72.48103656138642</v>
+        <v>72.48103656138638</v>
       </c>
       <c r="K8" t="n">
-        <v>155.0441911359788</v>
+        <v>155.0441911359787</v>
       </c>
       <c r="L8" t="n">
-        <v>610.4341993187985</v>
+        <v>707.8574493821779</v>
       </c>
       <c r="M8" t="n">
-        <v>1242.15201030211</v>
+        <v>1339.57526036549</v>
       </c>
       <c r="N8" t="n">
-        <v>1869.459678361957</v>
+        <v>1869.459678361955</v>
       </c>
       <c r="O8" t="n">
-        <v>2416.620883129034</v>
+        <v>2416.620883129032</v>
       </c>
       <c r="P8" t="n">
-        <v>2527.355208378561</v>
+        <v>2527.355208378559</v>
       </c>
       <c r="Q8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2347.539466667867</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U8" t="n">
-        <v>2093.847763413018</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V8" t="n">
-        <v>1762.784876069447</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="W8" t="n">
-        <v>1410.016220799333</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="X8" t="n">
-        <v>1036.550462538253</v>
+        <v>2188.873570139074</v>
       </c>
       <c r="Y8" t="n">
-        <v>1036.550462538253</v>
+        <v>1798.734238163262</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>893.4159553857321</v>
+        <v>964.6684709946088</v>
       </c>
       <c r="C9" t="n">
-        <v>718.9629261046051</v>
+        <v>790.2154417134818</v>
       </c>
       <c r="D9" t="n">
-        <v>570.0285164433539</v>
+        <v>641.2810320522306</v>
       </c>
       <c r="E9" t="n">
-        <v>410.7910614378983</v>
+        <v>482.0435770467751</v>
       </c>
       <c r="F9" t="n">
-        <v>264.2565034647833</v>
+        <v>335.5090190736601</v>
       </c>
       <c r="G9" t="n">
-        <v>126.8151058240053</v>
+        <v>198.067621432882</v>
       </c>
       <c r="H9" t="n">
-        <v>51.24678656800312</v>
+        <v>97.1516435776866</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="K9" t="n">
-        <v>380.675190873813</v>
+        <v>118.8546062313601</v>
       </c>
       <c r="L9" t="n">
-        <v>885.0367307399315</v>
+        <v>297.8406424065411</v>
       </c>
       <c r="M9" t="n">
-        <v>1519.21571451897</v>
+        <v>932.0196261855792</v>
       </c>
       <c r="N9" t="n">
-        <v>2153.394698298009</v>
+        <v>1566.198609964617</v>
       </c>
       <c r="O9" t="n">
-        <v>2430.91275967088</v>
+        <v>2115.63461871734</v>
       </c>
       <c r="P9" t="n">
-        <v>2539.602387198179</v>
+        <v>2539.602387198177</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="R9" t="n">
-        <v>2541.227428802343</v>
+        <v>2541.227428802341</v>
       </c>
       <c r="S9" t="n">
-        <v>2391.760639664978</v>
+        <v>2391.760639664976</v>
       </c>
       <c r="T9" t="n">
-        <v>2194.771343825065</v>
+        <v>2194.771343825063</v>
       </c>
       <c r="U9" t="n">
-        <v>1966.632556336231</v>
+        <v>1966.632556336229</v>
       </c>
       <c r="V9" t="n">
-        <v>1731.480448104488</v>
+        <v>1802.732963713365</v>
       </c>
       <c r="W9" t="n">
-        <v>1477.243091376287</v>
+        <v>1548.495606985163</v>
       </c>
       <c r="X9" t="n">
-        <v>1269.391591170754</v>
+        <v>1340.644106779631</v>
       </c>
       <c r="Y9" t="n">
-        <v>1061.6312924058</v>
+        <v>1132.883808014677</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="K10" t="n">
         <v>152.2947161636129</v>
@@ -4987,25 +4987,25 @@
         <v>1051.181468027348</v>
       </c>
       <c r="S10" t="n">
-        <v>1051.181468027348</v>
+        <v>843.7411832797532</v>
       </c>
       <c r="T10" t="n">
-        <v>884.5006212331709</v>
+        <v>618.1119865921181</v>
       </c>
       <c r="U10" t="n">
-        <v>595.3484448108507</v>
+        <v>328.9598101697979</v>
       </c>
       <c r="V10" t="n">
-        <v>340.6639566049637</v>
+        <v>74.27532196391101</v>
       </c>
       <c r="W10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="X10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1234.787393074839</v>
+        <v>1164.263254713409</v>
       </c>
       <c r="C11" t="n">
-        <v>1234.787393074839</v>
+        <v>795.3007377729978</v>
       </c>
       <c r="D11" t="n">
-        <v>877.9374416333219</v>
+        <v>437.0350391662473</v>
       </c>
       <c r="E11" t="n">
-        <v>877.9374416333219</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="F11" t="n">
-        <v>466.9515368437143</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G11" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H11" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I11" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J11" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K11" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L11" t="n">
-        <v>795.755353087293</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M11" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N11" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O11" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R11" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S11" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T11" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U11" t="n">
-        <v>2308.758267664336</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V11" t="n">
-        <v>1977.695380320765</v>
+        <v>2280.637000220415</v>
       </c>
       <c r="W11" t="n">
-        <v>1624.926725050651</v>
+        <v>1927.868344950301</v>
       </c>
       <c r="X11" t="n">
-        <v>1624.926725050651</v>
+        <v>1554.402586689221</v>
       </c>
       <c r="Y11" t="n">
-        <v>1234.787393074839</v>
+        <v>1164.263254713409</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E12" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G12" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I12" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J12" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K12" t="n">
-        <v>298.3188265310612</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L12" t="n">
-        <v>801.9449557744475</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M12" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O12" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P12" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q12" t="n">
         <v>2562.339328400155</v>
@@ -5151,7 +5151,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V12" t="n">
         <v>1769.368633815395</v>
@@ -5160,7 +5160,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y12" t="n">
         <v>1099.519478116707</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>281.0354892056661</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="C13" t="n">
-        <v>281.0354892056661</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D13" t="n">
-        <v>281.0354892056661</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E13" t="n">
-        <v>281.0354892056661</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F13" t="n">
-        <v>281.0354892056661</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G13" t="n">
-        <v>281.0354892056661</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H13" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I13" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J13" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K13" t="n">
         <v>248.4064713020475</v>
@@ -5227,22 +5227,22 @@
         <v>1337.23396574994</v>
       </c>
       <c r="T13" t="n">
-        <v>1114.255484944676</v>
+        <v>1207.865314055626</v>
       </c>
       <c r="U13" t="n">
-        <v>825.1371474485136</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="V13" t="n">
-        <v>570.4526592426267</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="W13" t="n">
-        <v>281.0354892056661</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="X13" t="n">
-        <v>281.0354892056661</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="Y13" t="n">
-        <v>281.0354892056661</v>
+        <v>918.7469765594642</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1367.208738248819</v>
+        <v>1575.249159503017</v>
       </c>
       <c r="C14" t="n">
-        <v>998.2462213084077</v>
+        <v>1206.286642562605</v>
       </c>
       <c r="D14" t="n">
-        <v>639.9805227016573</v>
+        <v>848.0209439558548</v>
       </c>
       <c r="E14" t="n">
-        <v>254.192270103413</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="F14" t="n">
-        <v>254.192270103413</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G14" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H14" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I14" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J14" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K14" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L14" t="n">
         <v>795.755353087291</v>
@@ -5300,28 +5300,28 @@
         <v>2542.250581723849</v>
       </c>
       <c r="R14" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S14" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T14" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U14" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V14" t="n">
-        <v>2106.577233583055</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="W14" t="n">
-        <v>1753.808578312941</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="X14" t="n">
-        <v>1753.808578312941</v>
+        <v>2351.988331542951</v>
       </c>
       <c r="Y14" t="n">
-        <v>1753.808578312941</v>
+        <v>1961.848999567139</v>
       </c>
     </row>
     <row r="15">
@@ -5331,55 +5331,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E15" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G15" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I15" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J15" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K15" t="n">
-        <v>298.3188265310612</v>
+        <v>684.9695361605187</v>
       </c>
       <c r="L15" t="n">
-        <v>593.0223835625327</v>
+        <v>979.6730931919903</v>
       </c>
       <c r="M15" t="n">
-        <v>1227.201367341571</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N15" t="n">
-        <v>1614.486495938516</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O15" t="n">
-        <v>2175.50262973664</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P15" t="n">
-        <v>2422.685363568937</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q15" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R15" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S15" t="n">
         <v>2426.617474780096</v>
@@ -5388,16 +5388,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V15" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y15" t="n">
         <v>1099.519478116707</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.683159487371</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="C16" t="n">
         <v>918.7469765594642</v>
@@ -5428,13 +5428,13 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H16" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I16" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K16" t="n">
         <v>248.4064713020475</v>
@@ -5458,28 +5458,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R16" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S16" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T16" t="n">
-        <v>1636.446120074497</v>
+        <v>1207.865314055626</v>
       </c>
       <c r="U16" t="n">
-        <v>1636.446120074497</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="V16" t="n">
-        <v>1636.446120074497</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="W16" t="n">
-        <v>1636.446120074497</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="X16" t="n">
-        <v>1490.124203461141</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1269.331624317611</v>
+        <v>918.7469765594642</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1785.600156360221</v>
+        <v>1412.134398099141</v>
       </c>
       <c r="C17" t="n">
-        <v>1416.637639419809</v>
+        <v>1043.171881158729</v>
       </c>
       <c r="D17" t="n">
-        <v>1058.371940813059</v>
+        <v>1043.171881158729</v>
       </c>
       <c r="E17" t="n">
-        <v>672.5836882148146</v>
+        <v>657.3836285604848</v>
       </c>
       <c r="F17" t="n">
-        <v>466.9515368437142</v>
+        <v>246.3977237708772</v>
       </c>
       <c r="G17" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H17" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I17" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J17" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L17" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M17" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N17" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O17" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P17" t="n">
         <v>2360.886721764996</v>
@@ -5555,10 +5555,10 @@
         <v>2562.339328400154</v>
       </c>
       <c r="X17" t="n">
-        <v>2562.339328400154</v>
+        <v>2188.873570139074</v>
       </c>
       <c r="Y17" t="n">
-        <v>2172.199996424343</v>
+        <v>1798.734238163262</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I18" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J18" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K18" t="n">
-        <v>298.3188265310612</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L18" t="n">
-        <v>801.9449557744475</v>
+        <v>884.9085321458216</v>
       </c>
       <c r="M18" t="n">
-        <v>1165.206974733667</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N18" t="n">
-        <v>1552.492103330613</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O18" t="n">
-        <v>1884.562538506774</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P18" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q18" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R18" t="n">
         <v>2562.339328400155</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>662.7751904765219</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C19" t="n">
-        <v>662.7751904765219</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="D19" t="n">
-        <v>662.7751904765219</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="E19" t="n">
-        <v>514.8620968941287</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="F19" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G19" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H19" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I19" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J19" t="n">
         <v>76.71595955312193</v>
@@ -5698,25 +5698,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S19" t="n">
-        <v>1395.664587921479</v>
+        <v>1394.715222610545</v>
       </c>
       <c r="T19" t="n">
-        <v>1172.686107116214</v>
+        <v>1394.715222610545</v>
       </c>
       <c r="U19" t="n">
-        <v>883.567769620052</v>
+        <v>1394.715222610545</v>
       </c>
       <c r="V19" t="n">
-        <v>883.567769620052</v>
+        <v>1140.030734404658</v>
       </c>
       <c r="W19" t="n">
-        <v>883.567769620052</v>
+        <v>850.6135643676971</v>
       </c>
       <c r="X19" t="n">
-        <v>883.567769620052</v>
+        <v>622.6240134696798</v>
       </c>
       <c r="Y19" t="n">
-        <v>662.7751904765219</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1059.365742829027</v>
+        <v>1412.134398099141</v>
       </c>
       <c r="C20" t="n">
-        <v>690.4032258886152</v>
+        <v>1043.171881158729</v>
       </c>
       <c r="D20" t="n">
-        <v>332.1375272818647</v>
+        <v>1043.171881158729</v>
       </c>
       <c r="E20" t="n">
-        <v>51.24678656800309</v>
+        <v>657.3836285604848</v>
       </c>
       <c r="F20" t="n">
-        <v>51.24678656800309</v>
+        <v>246.3977237708772</v>
       </c>
       <c r="G20" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H20" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I20" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J20" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K20" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L20" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M20" t="n">
         <v>1220.470313923561</v>
@@ -5765,7 +5765,7 @@
         <v>1656.671415230816</v>
       </c>
       <c r="O20" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P20" t="n">
         <v>2360.886721764996</v>
@@ -5789,13 +5789,13 @@
         <v>2562.339328400154</v>
       </c>
       <c r="W20" t="n">
-        <v>2209.57067313004</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="X20" t="n">
-        <v>1836.10491486896</v>
+        <v>2188.873570139074</v>
       </c>
       <c r="Y20" t="n">
-        <v>1445.965582893149</v>
+        <v>1798.734238163262</v>
       </c>
     </row>
     <row r="21">
@@ -5805,67 +5805,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.304141096638</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C21" t="n">
-        <v>756.851111815511</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9167021542597</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6792471488042</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1446891756892</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4432786182514</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H21" t="n">
-        <v>71.67401812057837</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I21" t="n">
-        <v>51.24678656800246</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J21" t="n">
-        <v>238.4273302370154</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K21" t="n">
-        <v>684.9695361605181</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L21" t="n">
-        <v>979.6730931919897</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M21" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N21" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O21" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P21" t="n">
-        <v>2447.023413292608</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q21" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R21" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S21" t="n">
-        <v>2426.617474780095</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T21" t="n">
-        <v>2232.610846175225</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U21" t="n">
         <v>2004.520742047137</v>
       </c>
       <c r="V21" t="n">
-        <v>1769.368633815394</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W21" t="n">
         <v>1515.131277087193</v>
@@ -5874,7 +5874,7 @@
         <v>1307.27977688166</v>
       </c>
       <c r="Y21" t="n">
-        <v>1099.519478116706</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2013.576367813029</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C22" t="n">
-        <v>1844.640184885122</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D22" t="n">
-        <v>1694.523545472786</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E22" t="n">
-        <v>1546.610451890393</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F22" t="n">
-        <v>1399.720504392483</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G22" t="n">
-        <v>1231.734039700762</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H22" t="n">
-        <v>1082.995141564268</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I22" t="n">
-        <v>977.139994893661</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J22" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K22" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L22" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M22" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N22" t="n">
-        <v>2048.98193257148</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O22" t="n">
-        <v>2309.019775324692</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P22" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q22" t="n">
-        <v>2562.339328400154</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R22" t="n">
-        <v>2562.339328400154</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S22" t="n">
-        <v>2562.339328400154</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T22" t="n">
-        <v>2339.36084759489</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U22" t="n">
-        <v>2339.36084759489</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V22" t="n">
-        <v>2339.36084759489</v>
+        <v>1158.783151063345</v>
       </c>
       <c r="W22" t="n">
-        <v>2339.36084759489</v>
+        <v>1158.783151063345</v>
       </c>
       <c r="X22" t="n">
-        <v>2339.36084759489</v>
+        <v>1158.783151063345</v>
       </c>
       <c r="Y22" t="n">
-        <v>2195.224832643269</v>
+        <v>1158.783151063345</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>96.5551489570508</v>
       </c>
       <c r="J23" t="n">
-        <v>232.8365446253294</v>
+        <v>400.2421936456824</v>
       </c>
       <c r="K23" t="n">
-        <v>808.7295061161087</v>
+        <v>976.1351551364618</v>
       </c>
       <c r="L23" t="n">
-        <v>1575.452276326738</v>
+        <v>1742.857925347091</v>
       </c>
       <c r="M23" t="n">
-        <v>2445.185635320912</v>
+        <v>2167.572886183361</v>
       </c>
       <c r="N23" t="n">
-        <v>3314.360191796031</v>
+        <v>2951.265537715758</v>
       </c>
       <c r="O23" t="n">
-        <v>4089.909440756172</v>
+        <v>3726.814786675899</v>
       </c>
       <c r="P23" t="n">
-        <v>4626.304841217382</v>
+        <v>4351.053744789824</v>
       </c>
       <c r="Q23" t="n">
-        <v>4807.668701176235</v>
+        <v>4742.609445501983</v>
       </c>
       <c r="R23" t="n">
         <v>4827.75744785254</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>976.6125034856863</v>
+        <v>3196.722260549023</v>
       </c>
       <c r="C24" t="n">
-        <v>802.1594742045593</v>
+        <v>3022.269231267896</v>
       </c>
       <c r="D24" t="n">
-        <v>653.225064543308</v>
+        <v>2873.334821606645</v>
       </c>
       <c r="E24" t="n">
-        <v>493.9876095378526</v>
+        <v>2714.09736660119</v>
       </c>
       <c r="F24" t="n">
-        <v>347.4530515647376</v>
+        <v>2567.562808628074</v>
       </c>
       <c r="G24" t="n">
-        <v>210.7516410072997</v>
+        <v>2430.861398070636</v>
       </c>
       <c r="H24" t="n">
-        <v>116.9823805096267</v>
+        <v>2337.092137572964</v>
       </c>
       <c r="I24" t="n">
-        <v>96.5551489570508</v>
+        <v>2316.664906020388</v>
       </c>
       <c r="J24" t="n">
-        <v>158.905567639059</v>
+        <v>2503.845449689401</v>
       </c>
       <c r="K24" t="n">
-        <v>343.6271889201089</v>
+        <v>2855.623094566737</v>
       </c>
       <c r="L24" t="n">
-        <v>1005.462687802005</v>
+        <v>3150.326651598208</v>
       </c>
       <c r="M24" t="n">
-        <v>1368.724706761225</v>
+        <v>3513.588670557428</v>
       </c>
       <c r="N24" t="n">
-        <v>1756.00983535817</v>
+        <v>3900.873799154373</v>
       </c>
       <c r="O24" t="n">
-        <v>2245.14904184936</v>
+        <v>4232.944234330535</v>
       </c>
       <c r="P24" t="n">
-        <v>2492.331775681657</v>
+        <v>4480.126968162831</v>
       </c>
       <c r="Q24" t="n">
-        <v>2607.647690789203</v>
+        <v>4803.419398128867</v>
       </c>
       <c r="R24" t="n">
-        <v>2607.647690789203</v>
+        <v>4827.75744785254</v>
       </c>
       <c r="S24" t="n">
-        <v>2471.925837169144</v>
+        <v>4692.03559423248</v>
       </c>
       <c r="T24" t="n">
-        <v>2277.919208564274</v>
+        <v>4498.02896562761</v>
       </c>
       <c r="U24" t="n">
-        <v>2049.829104436185</v>
+        <v>4269.938861499522</v>
       </c>
       <c r="V24" t="n">
-        <v>1814.676996204443</v>
+        <v>4034.78675326778</v>
       </c>
       <c r="W24" t="n">
-        <v>1560.439639476241</v>
+        <v>3780.549396539578</v>
       </c>
       <c r="X24" t="n">
-        <v>1352.588139270708</v>
+        <v>3572.697896334045</v>
       </c>
       <c r="Y24" t="n">
-        <v>1144.827840505754</v>
+        <v>3364.937597569091</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3242.558114346048</v>
+        <v>728.3136410332387</v>
       </c>
       <c r="C25" t="n">
-        <v>3242.558114346048</v>
+        <v>559.3774581053318</v>
       </c>
       <c r="D25" t="n">
-        <v>3242.558114346048</v>
+        <v>409.2608186929961</v>
       </c>
       <c r="E25" t="n">
-        <v>3242.558114346048</v>
+        <v>409.2608186929961</v>
       </c>
       <c r="F25" t="n">
-        <v>3242.558114346048</v>
+        <v>264.5416136487722</v>
       </c>
       <c r="G25" t="n">
-        <v>3242.558114346048</v>
+        <v>96.5551489570508</v>
       </c>
       <c r="H25" t="n">
-        <v>3242.558114346048</v>
+        <v>96.5551489570508</v>
       </c>
       <c r="I25" t="n">
-        <v>3242.558114346048</v>
+        <v>96.5551489570508</v>
       </c>
       <c r="J25" t="n">
-        <v>3268.027287331166</v>
+        <v>122.0243219421696</v>
       </c>
       <c r="K25" t="n">
-        <v>3439.717799080092</v>
+        <v>293.7148336910952</v>
       </c>
       <c r="L25" t="n">
-        <v>3714.948977747368</v>
+        <v>568.946012358371</v>
       </c>
       <c r="M25" t="n">
-        <v>4015.530788487703</v>
+        <v>869.5278230987062</v>
       </c>
       <c r="N25" t="n">
-        <v>4314.400052023867</v>
+        <v>1168.39708663487</v>
       </c>
       <c r="O25" t="n">
-        <v>4574.437894777078</v>
+        <v>1428.434929388082</v>
       </c>
       <c r="P25" t="n">
-        <v>4773.424509949067</v>
+        <v>1627.421544560071</v>
       </c>
       <c r="Q25" t="n">
-        <v>4827.75744785254</v>
+        <v>1681.754482463545</v>
       </c>
       <c r="R25" t="n">
-        <v>4725.174041368123</v>
+        <v>1681.754482463545</v>
       </c>
       <c r="S25" t="n">
-        <v>4528.545293527984</v>
+        <v>1681.754482463545</v>
       </c>
       <c r="T25" t="n">
-        <v>4305.566812722719</v>
+        <v>1681.754482463545</v>
       </c>
       <c r="U25" t="n">
-        <v>4016.448475226557</v>
+        <v>1392.636144967383</v>
       </c>
       <c r="V25" t="n">
-        <v>3761.76398702067</v>
+        <v>1137.951656761496</v>
       </c>
       <c r="W25" t="n">
-        <v>3472.346816983709</v>
+        <v>1137.951656761496</v>
       </c>
       <c r="X25" t="n">
-        <v>3244.357266085692</v>
+        <v>909.9621058634784</v>
       </c>
       <c r="Y25" t="n">
-        <v>3242.558114346048</v>
+        <v>909.9621058634784</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1330.099343395678</v>
+        <v>1575.249159503017</v>
       </c>
       <c r="C26" t="n">
-        <v>1330.099343395678</v>
+        <v>1206.286642562605</v>
       </c>
       <c r="D26" t="n">
-        <v>1330.099343395678</v>
+        <v>848.0209439558548</v>
       </c>
       <c r="E26" t="n">
-        <v>944.3110907974335</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="F26" t="n">
-        <v>533.3251860078259</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="G26" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H26" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I26" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J26" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K26" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L26" t="n">
         <v>795.755353087291</v>
@@ -6248,28 +6248,28 @@
         <v>2542.250581723849</v>
       </c>
       <c r="R26" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S26" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T26" t="n">
-        <v>2480.304273696691</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="U26" t="n">
-        <v>2480.304273696691</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="V26" t="n">
-        <v>2480.304273696691</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="W26" t="n">
-        <v>2480.304273696691</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="X26" t="n">
-        <v>2106.838515435611</v>
+        <v>2351.988331542951</v>
       </c>
       <c r="Y26" t="n">
-        <v>1716.6991834598</v>
+        <v>1961.848999567139</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E27" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G27" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I27" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J27" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K27" t="n">
-        <v>304.7087196946019</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L27" t="n">
-        <v>599.4122767260735</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M27" t="n">
-        <v>1233.591260505112</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N27" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O27" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P27" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q27" t="n">
         <v>2562.339328400155</v>
@@ -6336,7 +6336,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U27" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V27" t="n">
         <v>1769.368633815395</v>
@@ -6345,7 +6345,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X27" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y27" t="n">
         <v>1099.519478116707</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1087.683159487371</v>
+        <v>518.2127024906388</v>
       </c>
       <c r="C28" t="n">
-        <v>918.7469765594642</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D28" t="n">
-        <v>768.6303371471284</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E28" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="F28" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="G28" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H28" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I28" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J28" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K28" t="n">
         <v>248.4064713020475</v>
@@ -6406,28 +6406,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R28" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S28" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T28" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U28" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V28" t="n">
-        <v>1636.446120074497</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="W28" t="n">
-        <v>1636.446120074497</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="X28" t="n">
-        <v>1490.124203461141</v>
+        <v>920.6537464644086</v>
       </c>
       <c r="Y28" t="n">
-        <v>1269.331624317611</v>
+        <v>699.8611673208785</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1251.46096678957</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="C29" t="n">
-        <v>882.4984498491583</v>
+        <v>1631.862514795454</v>
       </c>
       <c r="D29" t="n">
-        <v>524.2327512424079</v>
+        <v>1273.596816188704</v>
       </c>
       <c r="E29" t="n">
-        <v>421.6795797345445</v>
+        <v>887.8085635904595</v>
       </c>
       <c r="F29" t="n">
-        <v>421.6795797345445</v>
+        <v>476.8226588008519</v>
       </c>
       <c r="G29" t="n">
-        <v>421.6795797345445</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H29" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I29" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J29" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M29" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N29" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O29" t="n">
         <v>2055.22848474084</v>
@@ -6491,22 +6491,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T29" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U29" t="n">
-        <v>2308.758267664335</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V29" t="n">
-        <v>1977.695380320764</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W29" t="n">
-        <v>1624.92672505065</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X29" t="n">
-        <v>1251.46096678957</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="Y29" t="n">
-        <v>1251.46096678957</v>
+        <v>2000.825031735866</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I30" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J30" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K30" t="n">
-        <v>298.3188265310612</v>
+        <v>614.5430248380235</v>
       </c>
       <c r="L30" t="n">
-        <v>815.1145481251086</v>
+        <v>909.2465818694951</v>
       </c>
       <c r="M30" t="n">
-        <v>1178.376567084329</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N30" t="n">
-        <v>1565.661695681274</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O30" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P30" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q30" t="n">
         <v>2562.339328400155</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>318.2992770412181</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C31" t="n">
-        <v>318.2992770412181</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D31" t="n">
-        <v>318.2992770412181</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E31" t="n">
-        <v>318.2992770412181</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F31" t="n">
-        <v>318.2992770412181</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G31" t="n">
-        <v>150.3128123494967</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H31" t="n">
-        <v>150.3128123494967</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I31" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J31" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K31" t="n">
         <v>248.4064713020475</v>
@@ -6646,25 +6646,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S31" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T31" t="n">
-        <v>1310.884232784815</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U31" t="n">
-        <v>1021.765895288652</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V31" t="n">
-        <v>767.0814070827656</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W31" t="n">
-        <v>767.0814070827656</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X31" t="n">
-        <v>539.0918561847483</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="Y31" t="n">
-        <v>318.2992770412181</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1802.273730074953</v>
+        <v>1432.831501090108</v>
       </c>
       <c r="C32" t="n">
-        <v>1802.273730074953</v>
+        <v>1063.868984149696</v>
       </c>
       <c r="D32" t="n">
-        <v>1634.158487398107</v>
+        <v>1063.868984149696</v>
       </c>
       <c r="E32" t="n">
-        <v>1248.370234799863</v>
+        <v>1063.868984149696</v>
       </c>
       <c r="F32" t="n">
-        <v>837.3843300102556</v>
+        <v>652.8830793600885</v>
       </c>
       <c r="G32" t="n">
-        <v>421.6795797345445</v>
+        <v>237.1783290843773</v>
       </c>
       <c r="H32" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I32" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J32" t="n">
         <v>187.5281822362817</v>
@@ -6707,16 +6707,16 @@
         <v>795.755353087291</v>
       </c>
       <c r="M32" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N32" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O32" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P32" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q32" t="n">
         <v>2542.25058172385</v>
@@ -6737,13 +6737,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W32" t="n">
-        <v>2562.339328400155</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X32" t="n">
-        <v>2188.873570139075</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="Y32" t="n">
-        <v>2188.873570139075</v>
+        <v>1819.431341154229</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I33" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J33" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K33" t="n">
-        <v>298.3188265310612</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L33" t="n">
-        <v>593.0223835625327</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M33" t="n">
-        <v>956.2844025217527</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N33" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O33" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P33" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q33" t="n">
         <v>2562.339328400155</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1548.937911402421</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C34" t="n">
-        <v>1380.001728474514</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D34" t="n">
-        <v>1229.885089062178</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E34" t="n">
-        <v>1229.885089062178</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F34" t="n">
-        <v>1082.995141564268</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G34" t="n">
-        <v>1082.995141564268</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H34" t="n">
-        <v>1082.995141564268</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I34" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J34" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K34" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L34" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M34" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N34" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O34" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P34" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q34" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R34" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S34" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T34" t="n">
-        <v>2339.36084759489</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U34" t="n">
-        <v>2339.36084759489</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V34" t="n">
-        <v>2339.36084759489</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W34" t="n">
-        <v>2179.368506274208</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="X34" t="n">
-        <v>1951.378955376191</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="Y34" t="n">
-        <v>1730.586376232661</v>
+        <v>1092.643294372448</v>
       </c>
     </row>
     <row r="35">
@@ -6917,22 +6917,22 @@
         <v>1412.134398099142</v>
       </c>
       <c r="D35" t="n">
-        <v>1053.868699492391</v>
+        <v>1053.868699492392</v>
       </c>
       <c r="E35" t="n">
-        <v>668.0804468941469</v>
+        <v>668.0804468941474</v>
       </c>
       <c r="F35" t="n">
-        <v>257.0945421045394</v>
+        <v>257.0945421045398</v>
       </c>
       <c r="G35" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H35" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I35" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J35" t="n">
         <v>187.5281822362817</v>
@@ -6977,10 +6977,10 @@
         <v>2562.339328400155</v>
       </c>
       <c r="X35" t="n">
-        <v>2188.873570139075</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y35" t="n">
-        <v>1798.734238163263</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I36" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J36" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K36" t="n">
-        <v>298.3188265310612</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L36" t="n">
-        <v>593.0223835625327</v>
+        <v>884.9085321458216</v>
       </c>
       <c r="M36" t="n">
-        <v>956.2844025217527</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N36" t="n">
-        <v>1343.569531118698</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O36" t="n">
-        <v>1884.562538506774</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P36" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q36" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R36" t="n">
         <v>2562.339328400155</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>461.9138669598622</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="C37" t="n">
-        <v>292.9776840319553</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="D37" t="n">
-        <v>142.8610446196195</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E37" t="n">
-        <v>51.2467865680031</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F37" t="n">
-        <v>51.2467865680031</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G37" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H37" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I37" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J37" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K37" t="n">
         <v>248.4064713020475</v>
@@ -7117,28 +7117,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R37" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S37" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T37" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U37" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V37" t="n">
-        <v>1381.76163186861</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W37" t="n">
-        <v>1092.344461831649</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="X37" t="n">
-        <v>864.354910933632</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="Y37" t="n">
-        <v>643.5623317901019</v>
+        <v>825.1371474485136</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1164.263254713409</v>
+        <v>420.2093035084148</v>
       </c>
       <c r="C38" t="n">
-        <v>795.3007377729978</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D38" t="n">
-        <v>437.0350391662473</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E38" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F38" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G38" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H38" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I38" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J38" t="n">
         <v>187.5281822362817</v>
@@ -7202,22 +7202,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T38" t="n">
-        <v>2562.339328400155</v>
+        <v>2507.826837158933</v>
       </c>
       <c r="U38" t="n">
-        <v>2562.339328400155</v>
+        <v>2254.245776423113</v>
       </c>
       <c r="V38" t="n">
-        <v>2280.637000220415</v>
+        <v>1923.182889079542</v>
       </c>
       <c r="W38" t="n">
-        <v>1927.868344950301</v>
+        <v>1570.414233809428</v>
       </c>
       <c r="X38" t="n">
-        <v>1554.402586689221</v>
+        <v>1196.948475548348</v>
       </c>
       <c r="Y38" t="n">
-        <v>1164.263254713409</v>
+        <v>806.8091435725366</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I39" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J39" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K39" t="n">
-        <v>298.3188265310612</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L39" t="n">
-        <v>932.4978103100996</v>
+        <v>801.9449557744475</v>
       </c>
       <c r="M39" t="n">
-        <v>1295.75982926932</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N39" t="n">
-        <v>1683.044957866265</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O39" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P39" t="n">
         <v>2447.023413292609</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>686.1991671823603</v>
+        <v>1251.931324492175</v>
       </c>
       <c r="C40" t="n">
-        <v>517.2629842544534</v>
+        <v>1082.995141564269</v>
       </c>
       <c r="D40" t="n">
-        <v>367.1463448421176</v>
+        <v>1082.995141564269</v>
       </c>
       <c r="E40" t="n">
-        <v>219.2332512597245</v>
+        <v>1082.995141564269</v>
       </c>
       <c r="F40" t="n">
-        <v>219.2332512597245</v>
+        <v>1082.995141564269</v>
       </c>
       <c r="G40" t="n">
-        <v>51.2467865680031</v>
+        <v>1082.995141564269</v>
       </c>
       <c r="H40" t="n">
-        <v>51.2467865680031</v>
+        <v>1082.995141564269</v>
       </c>
       <c r="I40" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936619</v>
       </c>
       <c r="J40" t="n">
-        <v>76.71595955312195</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K40" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L40" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M40" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N40" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O40" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P40" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q40" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R40" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S40" t="n">
-        <v>1634.628938519914</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T40" t="n">
-        <v>1411.650457714649</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U40" t="n">
-        <v>1122.532120218487</v>
+        <v>2273.220990903993</v>
       </c>
       <c r="V40" t="n">
-        <v>867.8476320126</v>
+        <v>2171.779089400923</v>
       </c>
       <c r="W40" t="n">
-        <v>867.8476320126</v>
+        <v>1882.361919363962</v>
       </c>
       <c r="X40" t="n">
-        <v>867.8476320126</v>
+        <v>1654.372368465945</v>
       </c>
       <c r="Y40" t="n">
-        <v>867.8476320126</v>
+        <v>1433.579789322415</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1302.576789404184</v>
+        <v>1575.249159503017</v>
       </c>
       <c r="C41" t="n">
-        <v>1302.576789404184</v>
+        <v>1206.286642562605</v>
       </c>
       <c r="D41" t="n">
-        <v>944.3110907974335</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="E41" t="n">
-        <v>944.3110907974335</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F41" t="n">
-        <v>533.3251860078259</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G41" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H41" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I41" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J41" t="n">
         <v>187.5281822362817</v>
@@ -7430,31 +7430,31 @@
         <v>2360.886721764996</v>
       </c>
       <c r="Q41" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R41" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S41" t="n">
-        <v>2469.43213713883</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T41" t="n">
-        <v>2260.686495744655</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U41" t="n">
-        <v>2007.105435008834</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V41" t="n">
-        <v>1676.042547665264</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W41" t="n">
-        <v>1676.042547665264</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X41" t="n">
-        <v>1302.576789404184</v>
+        <v>2351.988331542951</v>
       </c>
       <c r="Y41" t="n">
-        <v>1302.576789404184</v>
+        <v>1961.848999567139</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I42" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J42" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K42" t="n">
-        <v>298.3188265310612</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L42" t="n">
-        <v>932.4978103100996</v>
+        <v>884.9085321458216</v>
       </c>
       <c r="M42" t="n">
-        <v>1295.75982926932</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N42" t="n">
-        <v>1683.044957866265</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O42" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P42" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R42" t="n">
         <v>2562.339328400155</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I43" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J43" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K43" t="n">
         <v>248.4064713020475</v>
@@ -7594,25 +7594,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S43" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T43" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U43" t="n">
-        <v>927.7205539329314</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V43" t="n">
-        <v>673.0360657270445</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W43" t="n">
-        <v>383.6188956900839</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="X43" t="n">
-        <v>155.6293447920665</v>
+        <v>352.2580926322055</v>
       </c>
       <c r="Y43" t="n">
-        <v>51.2467865680031</v>
+        <v>131.4655134886754</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>918.0161179218642</v>
+        <v>1082.534146117595</v>
       </c>
       <c r="C44" t="n">
-        <v>549.0536009814525</v>
+        <v>713.5716291771834</v>
       </c>
       <c r="D44" t="n">
-        <v>190.787902374702</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="E44" t="n">
-        <v>190.787902374702</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F44" t="n">
-        <v>190.787902374702</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G44" t="n">
-        <v>51.24678656800309</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H44" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I44" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J44" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816077</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L44" t="n">
         <v>795.755353087291</v>
@@ -7661,37 +7661,37 @@
         <v>1656.671415230816</v>
       </c>
       <c r="O44" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P44" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R44" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S44" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T44" t="n">
-        <v>2228.894479532449</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U44" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V44" t="n">
-        <v>1644.250531453058</v>
+        <v>1859.273318157529</v>
       </c>
       <c r="W44" t="n">
-        <v>1291.481876182944</v>
+        <v>1859.273318157529</v>
       </c>
       <c r="X44" t="n">
-        <v>918.0161179218642</v>
+        <v>1859.273318157529</v>
       </c>
       <c r="Y44" t="n">
-        <v>918.0161179218642</v>
+        <v>1469.133986181717</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.304141096638</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C45" t="n">
-        <v>756.851111815511</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542597</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6792471488042</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756892</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G45" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I45" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J45" t="n">
-        <v>238.427330237016</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K45" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L45" t="n">
-        <v>909.2465818694942</v>
+        <v>593.0223835625327</v>
       </c>
       <c r="M45" t="n">
-        <v>1272.508600828714</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N45" t="n">
-        <v>1659.793729425659</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O45" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P45" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q45" t="n">
-        <v>2562.339328400154</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R45" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S45" t="n">
-        <v>2426.617474780095</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T45" t="n">
-        <v>2232.610846175225</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.368633815394</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.519478116706</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>864.354910933632</v>
+        <v>298.2016738772998</v>
       </c>
       <c r="C46" t="n">
-        <v>770.0080784229704</v>
+        <v>129.2654909493928</v>
       </c>
       <c r="D46" t="n">
-        <v>619.8914390106346</v>
+        <v>129.2654909493928</v>
       </c>
       <c r="E46" t="n">
-        <v>471.9783454282415</v>
+        <v>129.2654909493928</v>
       </c>
       <c r="F46" t="n">
-        <v>325.0883979303312</v>
+        <v>129.2654909493928</v>
       </c>
       <c r="G46" t="n">
-        <v>157.1019332386097</v>
+        <v>129.2654909493928</v>
       </c>
       <c r="H46" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I46" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J46" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K46" t="n">
         <v>248.4064713020475</v>
@@ -7828,28 +7828,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R46" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S46" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T46" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U46" t="n">
-        <v>1636.446120074497</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V46" t="n">
-        <v>1381.76163186861</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W46" t="n">
-        <v>1092.344461831649</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="X46" t="n">
-        <v>864.354910933632</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="Y46" t="n">
-        <v>864.354910933632</v>
+        <v>479.8501387075395</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>55.96943670484144</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>107.8742120229454</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>123.6078613817838</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599046</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>55.96943670484144</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>322.7513493539203</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>123.6078613817838</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,13 +8456,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>319.2538912541076</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>338.9396011156393</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8532,22 +8532,22 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>42.17822036311816</v>
       </c>
       <c r="M9" t="n">
-        <v>459.2743913378119</v>
+        <v>459.2743913378114</v>
       </c>
       <c r="N9" t="n">
-        <v>439.9214566933069</v>
+        <v>439.9214566933065</v>
       </c>
       <c r="O9" t="n">
-        <v>119.197725963748</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1.875832822406664e-12</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L12" t="n">
-        <v>211.0329012241563</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>20.93778120154992</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2.007283228522283e-12</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>273.6534998179986</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>231.2582814363251</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L18" t="n">
-        <v>211.0329012241563</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>20.93778120154992</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>138.9393975111062</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>20.93778120154992</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9644,22 +9644,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>351.0015658839824</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>233.0678418556093</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>168.7434581780669</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>158.6553245606347</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>20.93778120154992</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.090683099391754e-12</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>6.45443753893008</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>20.93778120154992</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>193.3273467878359</v>
       </c>
       <c r="L30" t="n">
-        <v>224.3355197601777</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>20.93778120154992</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>211.0329012241563</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>20.93778120154992</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.090683099391754e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>211.0329012241563</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>20.93778120154992</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.090683099391754e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>211.0329012241563</v>
       </c>
       <c r="L39" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>186.5911984019048</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.090683099391754e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L42" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>186.5911984019048</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>20.93778120154992</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,19 +11373,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>255.524048747158</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>20.93778120154992</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>388.89957102968</v>
+        <v>413.9008012965642</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>325.1172228173282</v>
       </c>
       <c r="I2" t="n">
-        <v>156.4277435039525</v>
+        <v>156.4277435039526</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,25 +22592,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>61.80474195134735</v>
+        <v>61.80474195134745</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>177.0734480055617</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.9588737673374</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>313.1031925675554</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22638,13 +22638,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>75.32452028816633</v>
       </c>
       <c r="H3" t="n">
-        <v>104.9910380206319</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>63.5707523815981</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22680,7 +22680,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>33.90423464913079</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22708,13 +22708,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3621190341859</v>
@@ -22723,10 +22723,10 @@
         <v>156.6360325334498</v>
       </c>
       <c r="I4" t="n">
-        <v>1.378034165416153</v>
+        <v>136.5389299027613</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>48.89875519058056</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.50356646189935</v>
+        <v>33.50356646189942</v>
       </c>
       <c r="R4" t="n">
         <v>149.0175444330455</v>
@@ -22759,13 +22759,13 @@
         <v>225.2586407700247</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2847278842578</v>
+        <v>200.415234929039</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22781,22 +22781,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>341.2565718220382</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>19.38052251324069</v>
+        <v>413.9008012965642</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22832,25 +22832,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>177.0734480055617</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2334980103508</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22878,10 +22878,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>75.32452028816455</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>63.57075238159807</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,10 +22908,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>53.58571135891966</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>85.3095613108446</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22939,16 +22939,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>87.56728266359137</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -22963,7 +22963,7 @@
         <v>136.5389299027613</v>
       </c>
       <c r="J7" t="n">
-        <v>48.8987551905805</v>
+        <v>48.89875519058056</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,7 +22984,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.50356646189935</v>
+        <v>33.50356646189942</v>
       </c>
       <c r="R7" t="n">
         <v>149.0175444330455</v>
@@ -22996,19 +22996,19 @@
         <v>225.2586407700247</v>
       </c>
       <c r="U7" t="n">
-        <v>200.4152349290385</v>
+        <v>286.2847278842578</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,25 +23018,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>219.7174761150914</v>
       </c>
       <c r="H8" t="n">
-        <v>107.1901904312875</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -23072,22 +23072,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23115,10 +23115,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>25.0941820132013</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23157,7 +23157,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>70.53999045278968</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -23227,10 +23227,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>58.3588663945236</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23239,7 +23239,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>263.7247482946422</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23258,19 +23258,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.401589693581059</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
         <v>301.0185525624054</v>
@@ -23312,16 +23312,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>48.86695357219355</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>24.55728874774309</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>92.67373081984115</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>210.6316740728982</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H14" t="n">
         <v>301.0185525624054</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
         <v>206.6581849802338</v>
@@ -23552,16 +23552,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>161.4836137898376</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7486959972119</v>
+        <v>92.67373081984115</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,10 +23716,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>80.85095794181444</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23735,16 +23735,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>203.3002158843221</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>218.3482749421086</v>
       </c>
       <c r="H17" t="n">
         <v>301.0185525624054</v>
@@ -23795,7 +23795,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I19" t="n">
         <v>104.7965952039006</v>
@@ -23938,22 +23938,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.84631594982312</v>
+        <v>56.90644429199835</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23972,16 +23972,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>103.8485367655388</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.547702772954</v>
+        <v>218.3482749421086</v>
       </c>
       <c r="H20" t="n">
         <v>301.0185525624054</v>
@@ -24029,7 +24029,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>109.4429885217226</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>75.88999854998971</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>2.149035029149672</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>147.2515091551289</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.8034931298472</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,10 +24443,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24455,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
-        <v>125.4434808238043</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.045250128462</v>
@@ -24506,7 +24506,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>368.1417987700709</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>80.85095794181444</v>
+        <v>91.51911725566328</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24686,19 +24686,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>280.4027302794771</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.547702772954</v>
+        <v>291.2461418248391</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,19 +24731,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I31" t="n">
-        <v>6.721229680221882</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>216.8034931298456</v>
       </c>
     </row>
     <row r="32">
@@ -24917,13 +24917,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>188.2489513706054</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24932,10 +24932,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>116.9463254711949</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>174.9214466457113</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,22 +25126,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>128.1305804291153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>207.7584247917831</v>
+        <v>207.7584247917827</v>
       </c>
       <c r="H35" t="n">
         <v>301.0185525624054</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>92.67373081984107</v>
       </c>
       <c r="E37" t="n">
-        <v>55.73584717546889</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,16 +25388,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25442,13 +25442,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
-        <v>206.6581849802338</v>
+        <v>152.6908186514239</v>
       </c>
       <c r="U38" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.86695357219264</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H40" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I40" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25597,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>192.8634506226999</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>151.7101608357889</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25676,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.47409605008275</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>161.4836137898363</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>100.4154405304717</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25834,7 +25834,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.245920710272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,10 +25877,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>273.4019981243221</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>65.70991267247052</v>
@@ -25922,16 +25922,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>212.8725588374247</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>73.84345691307279</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H46" t="n">
-        <v>147.2515091551289</v>
+        <v>70.01299181755303</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>194.6624603617375</v>
@@ -26077,7 +26077,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>769734.1917372888</v>
+        <v>769734.1917372884</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>769734.1917372886</v>
+        <v>769734.1917372884</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>776553.7163741159</v>
+        <v>776553.7163741154</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>774562.1699567268</v>
+        <v>774562.1699567267</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>774562.169956727</v>
+        <v>774562.1699567265</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>774562.1699567267</v>
+        <v>774562.1699567266</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>774562.1699567267</v>
+        <v>774562.1699567265</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>774562.1699567268</v>
+        <v>774562.1699567267</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>774562.169956727</v>
+        <v>774562.1699567268</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>774562.1699567268</v>
+        <v>774562.1699567267</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>774562.1699567268</v>
+        <v>774562.1699567266</v>
       </c>
     </row>
     <row r="16">
@@ -26314,31 +26314,31 @@
         <v>279674.3966369408</v>
       </c>
       <c r="C2" t="n">
-        <v>279674.3966369409</v>
+        <v>279674.3966369405</v>
       </c>
       <c r="D2" t="n">
-        <v>292326.4653616188</v>
+        <v>292326.4653616187</v>
       </c>
       <c r="E2" t="n">
+        <v>305971.6304943083</v>
+      </c>
+      <c r="F2" t="n">
+        <v>305971.6304943084</v>
+      </c>
+      <c r="G2" t="n">
+        <v>305971.6304943084</v>
+      </c>
+      <c r="H2" t="n">
+        <v>305971.6304943085</v>
+      </c>
+      <c r="I2" t="n">
+        <v>393448.3951421183</v>
+      </c>
+      <c r="J2" t="n">
+        <v>305971.6304943087</v>
+      </c>
+      <c r="K2" t="n">
         <v>305971.6304943086</v>
-      </c>
-      <c r="F2" t="n">
-        <v>305971.6304943085</v>
-      </c>
-      <c r="G2" t="n">
-        <v>305971.6304943085</v>
-      </c>
-      <c r="H2" t="n">
-        <v>305971.6304943086</v>
-      </c>
-      <c r="I2" t="n">
-        <v>393448.3951421182</v>
-      </c>
-      <c r="J2" t="n">
-        <v>305971.6304943084</v>
-      </c>
-      <c r="K2" t="n">
-        <v>305971.6304943085</v>
       </c>
       <c r="L2" t="n">
         <v>305971.6304943085</v>
@@ -26347,13 +26347,13 @@
         <v>305971.6304943085</v>
       </c>
       <c r="N2" t="n">
-        <v>305971.6304943085</v>
+        <v>305971.6304943086</v>
       </c>
       <c r="O2" t="n">
-        <v>305971.6304943085</v>
+        <v>305971.6304943086</v>
       </c>
       <c r="P2" t="n">
-        <v>305971.6304943085</v>
+        <v>305971.6304943086</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>550717.0470775617</v>
+        <v>550717.0470775613</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>209602.5870779997</v>
+        <v>209602.587078</v>
       </c>
       <c r="E3" t="n">
         <v>273630.0570820047</v>
@@ -26387,7 +26387,7 @@
         <v>150605.5629357245</v>
       </c>
       <c r="J3" t="n">
-        <v>19421.91319848262</v>
+        <v>19421.91319848244</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68948.76888829636</v>
+        <v>71035.31137914707</v>
       </c>
       <c r="C4" t="n">
-        <v>68948.76888829636</v>
+        <v>71035.31137914708</v>
       </c>
       <c r="D4" t="n">
-        <v>44885.34623107877</v>
+        <v>46238.08588288448</v>
       </c>
       <c r="E4" t="n">
-        <v>9869.999386411591</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="F4" t="n">
-        <v>9869.999386411602</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="G4" t="n">
-        <v>9869.999386411562</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="H4" t="n">
-        <v>9869.999386411564</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="I4" t="n">
-        <v>44783.01500802285</v>
+        <v>46123.82659833213</v>
       </c>
       <c r="J4" t="n">
-        <v>9869.999386411579</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="K4" t="n">
-        <v>9869.999386411562</v>
+        <v>10154.90898475466</v>
       </c>
       <c r="L4" t="n">
-        <v>9869.999386411577</v>
+        <v>10154.90898475465</v>
       </c>
       <c r="M4" t="n">
-        <v>9869.999386411579</v>
+        <v>10154.90898475466</v>
       </c>
       <c r="N4" t="n">
-        <v>9869.999386411579</v>
+        <v>10154.90898475465</v>
       </c>
       <c r="O4" t="n">
-        <v>9869.999386411579</v>
+        <v>10154.90898475463</v>
       </c>
       <c r="P4" t="n">
-        <v>9869.999386411559</v>
+        <v>10154.90898475463</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80177.50742093755</v>
+        <v>80177.5074209375</v>
       </c>
       <c r="C5" t="n">
-        <v>80177.50742093755</v>
+        <v>80177.5074209375</v>
       </c>
       <c r="D5" t="n">
-        <v>85512.93677905219</v>
+        <v>85512.93677905216</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984469</v>
       </c>
       <c r="F5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984469</v>
       </c>
       <c r="G5" t="n">
-        <v>59310.1724398447</v>
+        <v>59310.17243984469</v>
       </c>
       <c r="H5" t="n">
-        <v>59310.1724398447</v>
+        <v>59310.17243984469</v>
       </c>
       <c r="I5" t="n">
         <v>93744.52785552095</v>
@@ -26494,22 +26494,22 @@
         <v>59310.1724398447</v>
       </c>
       <c r="K5" t="n">
-        <v>59310.1724398447</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="L5" t="n">
-        <v>59310.1724398447</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="M5" t="n">
-        <v>59310.1724398447</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="N5" t="n">
-        <v>59310.1724398447</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="O5" t="n">
-        <v>59310.1724398447</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="P5" t="n">
-        <v>59310.1724398447</v>
+        <v>59310.17243984471</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-420168.9267498548</v>
+        <v>-422255.469240705</v>
       </c>
       <c r="C6" t="n">
-        <v>130548.120327707</v>
+        <v>128461.577836856</v>
       </c>
       <c r="D6" t="n">
-        <v>-47674.40472651178</v>
+        <v>-49027.14437831793</v>
       </c>
       <c r="E6" t="n">
-        <v>-36838.59841395238</v>
+        <v>-37123.50801229569</v>
       </c>
       <c r="F6" t="n">
-        <v>236791.4586680522</v>
+        <v>236506.5490697091</v>
       </c>
       <c r="G6" t="n">
-        <v>236791.4586680522</v>
+        <v>236506.5490697091</v>
       </c>
       <c r="H6" t="n">
-        <v>236791.4586680523</v>
+        <v>236506.5490697091</v>
       </c>
       <c r="I6" t="n">
-        <v>104315.2893428499</v>
+        <v>102974.4777525407</v>
       </c>
       <c r="J6" t="n">
-        <v>217369.5454695696</v>
+        <v>217084.6358712269</v>
       </c>
       <c r="K6" t="n">
-        <v>236791.4586680523</v>
+        <v>236506.5490697093</v>
       </c>
       <c r="L6" t="n">
-        <v>236791.4586680523</v>
+        <v>236506.5490697091</v>
       </c>
       <c r="M6" t="n">
-        <v>236791.4586680522</v>
+        <v>236506.5490697092</v>
       </c>
       <c r="N6" t="n">
-        <v>236791.4586680522</v>
+        <v>236506.5490697093</v>
       </c>
       <c r="O6" t="n">
-        <v>236791.4586680522</v>
+        <v>236506.5490697093</v>
       </c>
       <c r="P6" t="n">
-        <v>236791.4586680522</v>
+        <v>236506.5490697093</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>348.7316343695035</v>
+        <v>348.7316343695031</v>
       </c>
       <c r="C3" t="n">
-        <v>348.7316343695035</v>
+        <v>348.7316343695031</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="F4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="G4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="H4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="I4" t="n">
         <v>1206.939361963135</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="L4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
     </row>
   </sheetData>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>348.7316343695035</v>
+        <v>348.7316343695031</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>244.7444659685615</v>
+        <v>244.7444659685619</v>
       </c>
       <c r="E3" t="n">
         <v>340.5887917794739</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>566.3545298630964</v>
+        <v>566.3545298630966</v>
       </c>
       <c r="J4" t="n">
-        <v>74.23030223694263</v>
+        <v>74.23030223694195</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.401936218570867</v>
+        <v>1.401936218570866</v>
       </c>
       <c r="H2" t="n">
-        <v>14.3575792984389</v>
+        <v>14.35757929843888</v>
       </c>
       <c r="I2" t="n">
-        <v>54.04814606645342</v>
+        <v>54.04814606645336</v>
       </c>
       <c r="J2" t="n">
-        <v>118.9875841309293</v>
+        <v>118.9875841309291</v>
       </c>
       <c r="K2" t="n">
-        <v>178.3315442630341</v>
+        <v>178.3315442630339</v>
       </c>
       <c r="L2" t="n">
-        <v>221.2360498121223</v>
+        <v>221.2360498121221</v>
       </c>
       <c r="M2" t="n">
-        <v>246.167733039132</v>
+        <v>246.1677330391317</v>
       </c>
       <c r="N2" t="n">
-        <v>250.1509843201465</v>
+        <v>250.1509843201462</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2104810467324</v>
+        <v>236.2104810467322</v>
       </c>
       <c r="P2" t="n">
-        <v>201.6001806507641</v>
+        <v>201.6001806507639</v>
       </c>
       <c r="Q2" t="n">
-        <v>151.3933398231949</v>
+        <v>151.3933398231947</v>
       </c>
       <c r="R2" t="n">
-        <v>88.06437598980233</v>
+        <v>88.06437598980223</v>
       </c>
       <c r="S2" t="n">
-        <v>31.94662158068367</v>
+        <v>31.94662158068364</v>
       </c>
       <c r="T2" t="n">
-        <v>6.136975796793975</v>
+        <v>6.136975796793968</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1121548974856694</v>
+        <v>0.1121548974856692</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7501020060023283</v>
+        <v>0.7501020060023275</v>
       </c>
       <c r="H3" t="n">
-        <v>7.244406215864593</v>
+        <v>7.244406215864585</v>
       </c>
       <c r="I3" t="n">
-        <v>25.82588046981701</v>
+        <v>25.82588046981698</v>
       </c>
       <c r="J3" t="n">
-        <v>70.86818996182525</v>
+        <v>70.86818996182517</v>
       </c>
       <c r="K3" t="n">
-        <v>121.1250243639813</v>
+        <v>121.1250243639811</v>
       </c>
       <c r="L3" t="n">
-        <v>162.867543013795</v>
+        <v>162.8675430137949</v>
       </c>
       <c r="M3" t="n">
-        <v>190.0587407313794</v>
+        <v>190.0587407313792</v>
       </c>
       <c r="N3" t="n">
-        <v>195.0890300611056</v>
+        <v>195.0890300611053</v>
       </c>
       <c r="O3" t="n">
-        <v>178.4683487702119</v>
+        <v>178.4683487702117</v>
       </c>
       <c r="P3" t="n">
-        <v>143.2365839356551</v>
+        <v>143.236583935655</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.74986308198143</v>
+        <v>95.74986308198132</v>
       </c>
       <c r="R3" t="n">
-        <v>46.57212279372353</v>
+        <v>46.57212279372347</v>
       </c>
       <c r="S3" t="n">
-        <v>13.93281576938534</v>
+        <v>13.93281576938533</v>
       </c>
       <c r="T3" t="n">
-        <v>3.023437471562015</v>
+        <v>3.023437471562012</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04934881618436373</v>
+        <v>0.04934881618436367</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6288603242728751</v>
+        <v>0.6288603242728744</v>
       </c>
       <c r="H4" t="n">
-        <v>5.591139973989748</v>
+        <v>5.591139973989742</v>
       </c>
       <c r="I4" t="n">
-        <v>18.91154502449702</v>
+        <v>18.91154502449699</v>
       </c>
       <c r="J4" t="n">
-        <v>44.46042492609227</v>
+        <v>44.46042492609222</v>
       </c>
       <c r="K4" t="n">
-        <v>73.06213585643039</v>
+        <v>73.0621358564303</v>
       </c>
       <c r="L4" t="n">
-        <v>93.49437948326002</v>
+        <v>93.49437948325991</v>
       </c>
       <c r="M4" t="n">
-        <v>98.57671428579259</v>
+        <v>98.57671428579248</v>
       </c>
       <c r="N4" t="n">
-        <v>96.2327803498665</v>
+        <v>96.23278034986639</v>
       </c>
       <c r="O4" t="n">
-        <v>88.88654837995151</v>
+        <v>88.88654837995141</v>
       </c>
       <c r="P4" t="n">
-        <v>76.05779776478479</v>
+        <v>76.05779776478471</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.65847678979503</v>
+        <v>52.65847678979497</v>
       </c>
       <c r="R4" t="n">
-        <v>28.275846944124</v>
+        <v>28.27584694412397</v>
       </c>
       <c r="S4" t="n">
-        <v>10.95932037846456</v>
+        <v>10.95932037846454</v>
       </c>
       <c r="T4" t="n">
-        <v>2.68694865825683</v>
+        <v>2.686948658256826</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03430147223306595</v>
+        <v>0.03430147223306592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.401936218570867</v>
+        <v>1.401936218570866</v>
       </c>
       <c r="H5" t="n">
-        <v>14.3575792984389</v>
+        <v>14.35757929843888</v>
       </c>
       <c r="I5" t="n">
-        <v>54.04814606645342</v>
+        <v>54.04814606645336</v>
       </c>
       <c r="J5" t="n">
-        <v>118.9875841309293</v>
+        <v>118.9875841309291</v>
       </c>
       <c r="K5" t="n">
-        <v>178.3315442630341</v>
+        <v>178.3315442630339</v>
       </c>
       <c r="L5" t="n">
-        <v>221.2360498121223</v>
+        <v>221.2360498121221</v>
       </c>
       <c r="M5" t="n">
-        <v>246.167733039132</v>
+        <v>246.1677330391317</v>
       </c>
       <c r="N5" t="n">
-        <v>250.1509843201465</v>
+        <v>250.1509843201462</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2104810467324</v>
+        <v>236.2104810467322</v>
       </c>
       <c r="P5" t="n">
-        <v>201.6001806507641</v>
+        <v>201.6001806507639</v>
       </c>
       <c r="Q5" t="n">
-        <v>151.3933398231949</v>
+        <v>151.3933398231947</v>
       </c>
       <c r="R5" t="n">
-        <v>88.06437598980233</v>
+        <v>88.06437598980223</v>
       </c>
       <c r="S5" t="n">
-        <v>31.94662158068367</v>
+        <v>31.94662158068364</v>
       </c>
       <c r="T5" t="n">
-        <v>6.136975796793975</v>
+        <v>6.136975796793968</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1121548974856694</v>
+        <v>0.1121548974856692</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7501020060023283</v>
+        <v>0.7501020060023275</v>
       </c>
       <c r="H6" t="n">
-        <v>7.244406215864593</v>
+        <v>7.244406215864585</v>
       </c>
       <c r="I6" t="n">
-        <v>25.82588046981701</v>
+        <v>25.82588046981698</v>
       </c>
       <c r="J6" t="n">
-        <v>70.86818996182525</v>
+        <v>70.86818996182517</v>
       </c>
       <c r="K6" t="n">
-        <v>121.1250243639813</v>
+        <v>121.1250243639811</v>
       </c>
       <c r="L6" t="n">
-        <v>162.867543013795</v>
+        <v>162.8675430137949</v>
       </c>
       <c r="M6" t="n">
-        <v>190.0587407313794</v>
+        <v>190.0587407313792</v>
       </c>
       <c r="N6" t="n">
-        <v>195.0890300611056</v>
+        <v>195.0890300611053</v>
       </c>
       <c r="O6" t="n">
-        <v>178.4683487702119</v>
+        <v>178.4683487702117</v>
       </c>
       <c r="P6" t="n">
-        <v>143.2365839356551</v>
+        <v>143.236583935655</v>
       </c>
       <c r="Q6" t="n">
-        <v>95.74986308198143</v>
+        <v>95.74986308198132</v>
       </c>
       <c r="R6" t="n">
-        <v>46.57212279372353</v>
+        <v>46.57212279372347</v>
       </c>
       <c r="S6" t="n">
-        <v>13.93281576938534</v>
+        <v>13.93281576938533</v>
       </c>
       <c r="T6" t="n">
-        <v>3.023437471562015</v>
+        <v>3.023437471562012</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04934881618436373</v>
+        <v>0.04934881618436367</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6288603242728751</v>
+        <v>0.6288603242728744</v>
       </c>
       <c r="H7" t="n">
-        <v>5.591139973989748</v>
+        <v>5.591139973989742</v>
       </c>
       <c r="I7" t="n">
-        <v>18.91154502449702</v>
+        <v>18.91154502449699</v>
       </c>
       <c r="J7" t="n">
-        <v>44.46042492609227</v>
+        <v>44.46042492609222</v>
       </c>
       <c r="K7" t="n">
-        <v>73.06213585643039</v>
+        <v>73.0621358564303</v>
       </c>
       <c r="L7" t="n">
-        <v>93.49437948326002</v>
+        <v>93.49437948325991</v>
       </c>
       <c r="M7" t="n">
-        <v>98.57671428579259</v>
+        <v>98.57671428579248</v>
       </c>
       <c r="N7" t="n">
-        <v>96.2327803498665</v>
+        <v>96.23278034986639</v>
       </c>
       <c r="O7" t="n">
-        <v>88.88654837995151</v>
+        <v>88.88654837995141</v>
       </c>
       <c r="P7" t="n">
-        <v>76.05779776478479</v>
+        <v>76.05779776478471</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.65847678979503</v>
+        <v>52.65847678979497</v>
       </c>
       <c r="R7" t="n">
-        <v>28.275846944124</v>
+        <v>28.27584694412397</v>
       </c>
       <c r="S7" t="n">
-        <v>10.95932037846456</v>
+        <v>10.95932037846454</v>
       </c>
       <c r="T7" t="n">
-        <v>2.68694865825683</v>
+        <v>2.686948658256826</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03430147223306595</v>
+        <v>0.03430147223306592</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -34150,7 +34150,7 @@
         <v>539.9786897190644</v>
       </c>
       <c r="Q41" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147065</v>
       </c>
       <c r="R41" t="n">
         <v>235.8772011235311</v>
@@ -34381,7 +34381,7 @@
         <v>670.0202366342222</v>
       </c>
       <c r="O44" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166608</v>
       </c>
       <c r="P44" t="n">
         <v>539.9786897190644</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>107.0382947763167</v>
+        <v>107.0382947763166</v>
       </c>
       <c r="K2" t="n">
-        <v>282.3871057892183</v>
+        <v>282.3871057892181</v>
       </c>
       <c r="L2" t="n">
-        <v>403.1308493925856</v>
+        <v>403.1308493925853</v>
       </c>
       <c r="M2" t="n">
-        <v>465.3350333046918</v>
+        <v>465.3350333046915</v>
       </c>
       <c r="N2" t="n">
-        <v>458.0848451355398</v>
+        <v>458.0848451355395</v>
       </c>
       <c r="O2" t="n">
-        <v>386.912450887791</v>
+        <v>386.9124508877908</v>
       </c>
       <c r="P2" t="n">
-        <v>292.1658930669772</v>
+        <v>292.165893066977</v>
       </c>
       <c r="Q2" t="n">
-        <v>141.40264060865</v>
+        <v>141.4026406086499</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>70.12159863556731</v>
       </c>
       <c r="K3" t="n">
-        <v>247.7488224022009</v>
+        <v>91.15779741256752</v>
       </c>
       <c r="L3" t="n">
-        <v>395.15350853738</v>
+        <v>395.1535085373798</v>
       </c>
       <c r="M3" t="n">
-        <v>513.629770559361</v>
+        <v>513.6297705593607</v>
       </c>
       <c r="N3" t="n">
-        <v>543.0896923213259</v>
+        <v>543.0896923213256</v>
       </c>
       <c r="O3" t="n">
-        <v>429.7344236024969</v>
+        <v>429.7344236024967</v>
       </c>
       <c r="P3" t="n">
-        <v>327.7249451612621</v>
+        <v>327.7249451612619</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.37595037774372</v>
+        <v>165.8453767318089</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.79264403054754</v>
+        <v>50.79264403054745</v>
       </c>
       <c r="L4" t="n">
-        <v>121.0844047435762</v>
+        <v>121.084404743576</v>
       </c>
       <c r="M4" t="n">
-        <v>138.1605912476332</v>
+        <v>138.1605912476331</v>
       </c>
       <c r="N4" t="n">
-        <v>140.3649527290951</v>
+        <v>140.364952729095</v>
       </c>
       <c r="O4" t="n">
-        <v>113.4716762939912</v>
+        <v>113.4716762939911</v>
       </c>
       <c r="P4" t="n">
-        <v>73.33635702967828</v>
+        <v>73.3363570296782</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>107.0382947763167</v>
+        <v>107.0382947763166</v>
       </c>
       <c r="K5" t="n">
-        <v>282.3871057892183</v>
+        <v>282.3871057892181</v>
       </c>
       <c r="L5" t="n">
-        <v>403.1308493925856</v>
+        <v>403.1308493925853</v>
       </c>
       <c r="M5" t="n">
-        <v>465.3350333046918</v>
+        <v>465.3350333046915</v>
       </c>
       <c r="N5" t="n">
-        <v>458.0848451355398</v>
+        <v>458.0848451355395</v>
       </c>
       <c r="O5" t="n">
-        <v>386.912450887791</v>
+        <v>386.9124508877908</v>
       </c>
       <c r="P5" t="n">
-        <v>292.1658930669772</v>
+        <v>292.165893066977</v>
       </c>
       <c r="Q5" t="n">
         <v>141.4026406086499</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>70.12159863556731</v>
       </c>
       <c r="K6" t="n">
-        <v>247.7488224022009</v>
+        <v>247.7488224022007</v>
       </c>
       <c r="L6" t="n">
-        <v>395.15350853738</v>
+        <v>395.1535085373798</v>
       </c>
       <c r="M6" t="n">
-        <v>513.629770559361</v>
+        <v>513.6297705593607</v>
       </c>
       <c r="N6" t="n">
-        <v>543.0896923213259</v>
+        <v>386.4986673316923</v>
       </c>
       <c r="O6" t="n">
-        <v>429.7344236024969</v>
+        <v>429.7344236024967</v>
       </c>
       <c r="P6" t="n">
-        <v>327.7249451612621</v>
+        <v>327.7249451612619</v>
       </c>
       <c r="Q6" t="n">
-        <v>79.37595037774372</v>
+        <v>165.8453767318089</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>50.79264403054754</v>
+        <v>50.79264403054745</v>
       </c>
       <c r="L7" t="n">
-        <v>121.0844047435762</v>
+        <v>121.084404743576</v>
       </c>
       <c r="M7" t="n">
-        <v>138.1605912476332</v>
+        <v>138.1605912476331</v>
       </c>
       <c r="N7" t="n">
-        <v>140.3649527290951</v>
+        <v>140.364952729095</v>
       </c>
       <c r="O7" t="n">
-        <v>113.4716762939912</v>
+        <v>113.4716762939911</v>
       </c>
       <c r="P7" t="n">
-        <v>73.33635702967828</v>
+        <v>73.3363570296782</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,13 +35176,13 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>459.9899072553735</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>535.2367858550155</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>180.7939759345262</v>
       </c>
       <c r="M9" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="N9" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="O9" t="n">
-        <v>280.3212741140113</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>22.96660727472423</v>
@@ -35413,7 +35413,7 @@
         <v>257.5646495407336</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067525</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M11" t="n">
         <v>429.0050109457276</v>
@@ -35431,7 +35431,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.98022089091737</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K12" t="n">
-        <v>186.5874962434847</v>
+        <v>379.9148430313202</v>
       </c>
       <c r="L12" t="n">
-        <v>508.7132618620064</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M12" t="n">
         <v>366.9313322820404</v>
@@ -35504,10 +35504,10 @@
         <v>335.4246819961229</v>
       </c>
       <c r="P12" t="n">
-        <v>568.1422977634693</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R14" t="n">
-        <v>20.29166330940099</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.98022089091737</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K15" t="n">
-        <v>186.5874962434847</v>
+        <v>451.0527332560633</v>
       </c>
       <c r="L15" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M15" t="n">
-        <v>640.584832100039</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N15" t="n">
         <v>391.1970995928738</v>
       </c>
       <c r="O15" t="n">
-        <v>566.682963432448</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P15" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R15" t="n">
-        <v>24.5838886097709</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R17" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>62.98022089091737</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K18" t="n">
-        <v>186.5874962434847</v>
+        <v>355.3309544215494</v>
       </c>
       <c r="L18" t="n">
-        <v>508.7132618620064</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M18" t="n">
         <v>366.9313322820404</v>
@@ -35978,13 +35978,13 @@
         <v>335.4246819961229</v>
       </c>
       <c r="P18" t="n">
-        <v>568.1422977634693</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>24.5838886097709</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R20" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K21" t="n">
-        <v>451.0527332560633</v>
+        <v>379.9148430313202</v>
       </c>
       <c r="L21" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M21" t="n">
-        <v>505.8707297931466</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N21" t="n">
         <v>391.1970995928738</v>
@@ -36218,7 +36218,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>137.6579754225036</v>
+        <v>306.7545905945774</v>
       </c>
       <c r="K23" t="n">
         <v>581.7100621118984</v>
@@ -36364,22 +36364,22 @@
         <v>774.4674446572011</v>
       </c>
       <c r="M23" t="n">
-        <v>878.5185444385601</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N23" t="n">
-        <v>877.9540974496155</v>
+        <v>791.6087389216137</v>
       </c>
       <c r="O23" t="n">
         <v>783.383079757718</v>
       </c>
       <c r="P23" t="n">
-        <v>541.8135358194041</v>
+        <v>630.5444021352776</v>
       </c>
       <c r="Q23" t="n">
-        <v>183.1958181402556</v>
+        <v>395.5108088001602</v>
       </c>
       <c r="R23" t="n">
-        <v>20.29166330939898</v>
+        <v>86.00808318238143</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>62.98022089091737</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K24" t="n">
-        <v>186.5874962434847</v>
+        <v>355.3309544215516</v>
       </c>
       <c r="L24" t="n">
-        <v>668.5207059413092</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M24" t="n">
         <v>366.9313322820404</v>
@@ -36449,16 +36449,16 @@
         <v>391.1970995928738</v>
       </c>
       <c r="O24" t="n">
-        <v>494.0800065567576</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P24" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>24.5838886097709</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R26" t="n">
-        <v>20.29166330940008</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>62.98022089091737</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K27" t="n">
-        <v>193.0419337824148</v>
+        <v>379.9148430313202</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M27" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N27" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O27" t="n">
         <v>335.4246819961229</v>
@@ -36692,7 +36692,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q27" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>356.8062301067507</v>
       </c>
       <c r="M29" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457291</v>
       </c>
       <c r="N29" t="n">
         <v>440.6071730376313</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>62.98022089091737</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K30" t="n">
-        <v>186.5874962434847</v>
+        <v>379.9148430313207</v>
       </c>
       <c r="L30" t="n">
-        <v>522.0158803980278</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M30" t="n">
         <v>366.9313322820404</v>
@@ -36923,13 +36923,13 @@
         <v>391.1970995928738</v>
       </c>
       <c r="O30" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P30" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q30" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>356.8062301067507</v>
       </c>
       <c r="M32" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457291</v>
       </c>
       <c r="N32" t="n">
         <v>440.6071730376313</v>
@@ -37087,7 +37087,7 @@
         <v>308.7456939637948</v>
       </c>
       <c r="Q32" t="n">
-        <v>183.1958181402565</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R32" t="n">
         <v>20.29166330939898</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>62.98022089091737</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K33" t="n">
-        <v>186.5874962434847</v>
+        <v>379.9148430313202</v>
       </c>
       <c r="L33" t="n">
         <v>297.6803606378501</v>
@@ -37160,13 +37160,13 @@
         <v>391.1970995928738</v>
       </c>
       <c r="O33" t="n">
-        <v>546.4575832202792</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P33" t="n">
-        <v>568.1422977634693</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q33" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R35" t="n">
-        <v>20.29166330940008</v>
+        <v>20.29166330940053</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>62.98022089091737</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K36" t="n">
-        <v>186.5874962434847</v>
+        <v>355.3309544215494</v>
       </c>
       <c r="L36" t="n">
         <v>297.6803606378501</v>
@@ -37397,16 +37397,16 @@
         <v>391.1970995928738</v>
       </c>
       <c r="O36" t="n">
-        <v>546.4575832202792</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P36" t="n">
-        <v>568.1422977634693</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q36" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>24.5838886097709</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R38" t="n">
-        <v>20.29166330940008</v>
+        <v>20.29166330940053</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>62.98022089091737</v>
       </c>
       <c r="K39" t="n">
-        <v>186.5874962434847</v>
+        <v>397.6203974676411</v>
       </c>
       <c r="L39" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M39" t="n">
         <v>366.9313322820404</v>
@@ -37634,10 +37634,10 @@
         <v>391.1970995928738</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0158803980277</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P39" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634693</v>
       </c>
       <c r="Q39" t="n">
         <v>116.4807223308545</v>
@@ -37798,10 +37798,10 @@
         <v>308.7456939637948</v>
       </c>
       <c r="Q41" t="n">
-        <v>183.1958181402556</v>
+        <v>183.195818140257</v>
       </c>
       <c r="R41" t="n">
-        <v>20.29166330940008</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>62.98022089091737</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K42" t="n">
-        <v>186.5874962434847</v>
+        <v>355.3309544215494</v>
       </c>
       <c r="L42" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M42" t="n">
         <v>366.9313322820404</v>
@@ -37871,16 +37871,16 @@
         <v>391.1970995928738</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0158803980277</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P42" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q42" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>24.5838886097709</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>440.6071730376313</v>
       </c>
       <c r="O44" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949741</v>
       </c>
       <c r="P44" t="n">
         <v>308.7456939637948</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091737</v>
       </c>
       <c r="K45" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L45" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M45" t="n">
-        <v>366.9313322820404</v>
+        <v>622.4553810291984</v>
       </c>
       <c r="N45" t="n">
-        <v>391.1970995928738</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O45" t="n">
         <v>335.4246819961229</v>
@@ -38114,10 +38114,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q45" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>24.5838886097709</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
